--- a/845043-Project/src/test/resources/TestData/MercuryExcel.xlsx
+++ b/845043-Project/src/test/resources/TestData/MercuryExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>TestCase</t>
   </si>
@@ -265,12 +265,19 @@
   </si>
   <si>
     <t>demo56733</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>HomeTable cannot be Retrived</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -740,13 +747,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30">
@@ -786,10 +793,10 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -948,10 +955,10 @@
       <c r="E15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -984,10 +991,10 @@
       <c r="E18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1016,11 +1023,11 @@
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>11</v>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1033,10 +1040,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="4">
@@ -1044,10 +1051,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="4">
@@ -1055,10 +1062,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="4">
@@ -1066,10 +1073,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="4">
@@ -1088,10 +1095,10 @@
       <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1099,16 +1106,16 @@
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
     </row>
